--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2071,7 +2071,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2071,7 +2068,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3861,10 +3858,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3888,13 +3885,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3902,13 +3899,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3942,7 +3939,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4012,13 +4009,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4026,10 +4023,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4052,13 +4049,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4109,7 +4106,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4144,10 +4141,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4176,7 +4173,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4229,7 +4226,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4264,10 +4261,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4290,19 +4287,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4351,7 +4348,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4372,10 +4369,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4386,10 +4383,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4412,13 +4409,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4469,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4504,10 +4501,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4536,7 +4533,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4589,7 +4586,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4624,10 +4621,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4653,65 +4650,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4732,10 +4729,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4746,10 +4743,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4772,16 +4769,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4831,7 +4828,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4852,10 +4849,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4866,10 +4863,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4895,65 +4892,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4974,10 +4971,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4988,10 +4985,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5014,19 +5011,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5075,7 +5072,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5096,10 +5093,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5110,10 +5107,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5136,19 +5133,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5197,7 +5194,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5218,10 +5215,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5232,10 +5229,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5258,19 +5255,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5319,7 +5316,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5340,10 +5337,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5354,13 +5351,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5394,7 +5391,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5404,7 +5401,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5464,13 +5461,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5478,14 +5475,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5507,16 +5504,16 @@
         <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5541,14 +5538,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>92</v>
@@ -5580,30 +5577,30 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5626,19 +5623,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5687,7 +5684,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5702,19 +5699,19 @@
         <v>170</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5722,10 +5719,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5748,16 +5745,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5807,7 +5804,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5828,13 +5825,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5842,14 +5839,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5868,19 +5865,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5929,7 +5926,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5944,19 +5941,19 @@
         <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5964,14 +5961,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5990,19 +5987,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6051,7 +6048,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6066,19 +6063,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6086,10 +6083,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6112,16 +6109,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6171,7 +6168,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6192,13 +6189,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6206,10 +6203,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6232,19 +6229,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6293,7 +6290,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6308,19 +6305,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6328,10 +6325,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6354,19 +6351,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6415,7 +6412,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6424,7 +6421,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6433,27 +6430,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6479,16 +6476,16 @@
         <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6513,14 +6510,14 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6537,7 +6534,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6546,7 +6543,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6561,7 +6558,7 @@
         <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6572,14 +6569,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6601,16 +6598,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6635,14 +6632,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6677,27 +6674,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6720,19 +6717,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6781,7 +6778,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6802,10 +6799,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6816,10 +6813,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6845,13 +6842,13 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6877,14 +6874,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6901,7 +6898,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6919,27 +6916,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6965,16 +6962,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6999,14 +6996,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7023,7 +7020,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7044,10 +7041,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7058,10 +7055,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7084,16 +7081,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7143,7 +7140,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7161,27 +7158,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7204,16 +7201,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7263,7 +7260,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7281,27 +7278,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7324,19 +7321,19 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7385,7 +7382,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7397,19 +7394,19 @@
         <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7420,10 +7417,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7446,13 +7443,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7503,7 +7500,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7538,10 +7535,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7570,7 +7567,7 @@
         <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
@@ -7623,7 +7620,7 @@
         <v>146</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7658,14 +7655,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7687,10 +7684,10 @@
         <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7745,7 +7742,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7780,10 +7777,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7806,16 +7803,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7865,7 +7862,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7874,22 +7871,22 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7900,10 +7897,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7926,16 +7923,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7985,7 +7982,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7994,22 +7991,22 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="AN49" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8020,10 +8017,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8049,16 +8046,16 @@
         <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8086,11 +8083,11 @@
         <v>119</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8107,7 +8104,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8125,13 +8122,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8142,10 +8139,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8171,16 +8168,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8205,14 +8202,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8229,7 +8226,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8247,13 +8244,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8264,10 +8261,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8290,19 +8287,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8351,7 +8348,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8363,19 +8360,19 @@
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8386,10 +8383,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8412,16 +8409,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8471,7 +8468,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8492,10 +8489,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8506,10 +8503,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8532,16 +8529,16 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8591,7 +8588,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8612,10 +8609,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8626,10 +8623,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8652,16 +8649,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8711,7 +8708,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8732,10 +8729,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8746,10 +8743,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8772,19 +8769,19 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8833,7 +8830,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8854,10 +8851,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8868,10 +8865,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8894,13 +8891,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8951,7 +8948,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8986,10 +8983,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9018,7 +9015,7 @@
         <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -9071,7 +9068,7 @@
         <v>146</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9106,14 +9103,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9135,10 +9132,10 @@
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9193,7 +9190,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9228,10 +9225,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9257,16 +9254,16 @@
         <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9291,14 +9288,14 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9315,7 +9312,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>92</v>
@@ -9333,16 +9330,16 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9350,10 +9347,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9376,19 +9373,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>533</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9437,7 +9434,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9455,27 +9452,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9501,16 +9498,16 @@
         <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9535,14 +9532,14 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9559,7 +9556,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9568,7 +9565,7 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9583,7 +9580,7 @@
         <v>106</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9594,14 +9591,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9623,16 +9620,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9657,14 +9654,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9681,7 +9678,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9699,27 +9696,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9745,16 +9742,16 @@
         <v>83</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="N64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9803,7 +9800,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9824,10 +9821,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3858,10 +3861,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3885,13 +3888,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3899,13 +3902,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3939,7 +3942,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4009,13 +4012,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4023,10 +4026,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4049,13 +4052,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4106,7 +4109,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4141,10 +4144,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4173,7 +4176,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4226,7 +4229,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4261,10 +4264,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4272,13 +4275,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4287,19 +4290,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4348,7 +4351,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4369,10 +4372,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4383,10 +4386,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4409,13 +4412,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4466,7 +4469,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4501,10 +4504,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4533,7 +4536,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4586,7 +4589,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4621,10 +4624,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4632,13 +4635,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4650,23 +4653,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4708,7 +4711,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4729,10 +4732,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4743,10 +4746,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4769,16 +4772,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4828,7 +4831,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4849,10 +4852,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4863,10 +4866,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4874,13 +4877,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4892,23 +4895,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4950,7 +4953,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4971,10 +4974,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4985,10 +4988,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5011,19 +5014,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5072,7 +5075,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5093,10 +5096,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5107,10 +5110,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5133,19 +5136,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5194,7 +5197,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5215,10 +5218,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5229,10 +5232,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5255,19 +5258,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5316,7 +5319,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5337,10 +5340,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5351,13 +5354,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5391,7 +5394,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5401,7 +5404,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5461,13 +5464,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5475,14 +5478,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5504,16 +5507,16 @@
         <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5538,13 +5541,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5562,7 +5565,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>92</v>
@@ -5577,30 +5580,30 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5623,19 +5626,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5684,7 +5687,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5699,19 +5702,19 @@
         <v>170</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5719,10 +5722,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5745,16 +5748,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5804,7 +5807,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5825,13 +5828,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5839,14 +5842,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5865,19 +5868,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5926,7 +5929,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5941,19 +5944,19 @@
         <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5961,14 +5964,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5987,19 +5990,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6048,7 +6051,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6063,19 +6066,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6083,10 +6086,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6109,16 +6112,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6168,7 +6171,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6189,13 +6192,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6229,19 +6232,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6290,7 +6293,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6305,19 +6308,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6351,19 +6354,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6412,7 +6415,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6421,7 +6424,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6430,27 +6433,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6476,16 +6479,16 @@
         <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6510,13 +6513,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6534,7 +6537,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6543,7 +6546,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6558,7 +6561,7 @@
         <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6569,14 +6572,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6598,16 +6601,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6632,13 +6635,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6656,7 +6659,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6674,27 +6677,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6717,19 +6720,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6778,7 +6781,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6799,10 +6802,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6813,10 +6816,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6842,13 +6845,13 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6874,13 +6877,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6898,7 +6901,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6916,27 +6919,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6962,16 +6965,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6996,13 +6999,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7020,7 +7023,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7041,10 +7044,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7055,10 +7058,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7081,16 +7084,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7140,7 +7143,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7158,27 +7161,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7201,16 +7204,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7260,7 +7263,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7278,27 +7281,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7321,19 +7324,19 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7382,7 +7385,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7394,7 +7397,7 @@
         <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7403,10 +7406,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7417,10 +7420,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7443,13 +7446,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7500,7 +7503,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7535,10 +7538,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7567,7 +7570,7 @@
         <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
@@ -7620,7 +7623,7 @@
         <v>146</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7655,14 +7658,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7684,10 +7687,10 @@
         <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7742,7 +7745,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7777,10 +7780,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7803,16 +7806,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7862,7 +7865,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7871,10 +7874,10 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7883,10 +7886,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7897,10 +7900,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7923,16 +7926,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7982,7 +7985,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7991,10 +7994,10 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8003,10 +8006,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8017,10 +8020,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8046,16 +8049,16 @@
         <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8083,10 +8086,10 @@
         <v>119</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8104,7 +8107,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8122,13 +8125,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8139,10 +8142,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8168,16 +8171,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8202,13 +8205,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8226,7 +8229,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8244,13 +8247,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8261,10 +8264,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8287,19 +8290,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8348,7 +8351,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8360,7 +8363,7 @@
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8369,10 +8372,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8383,10 +8386,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8409,16 +8412,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8468,7 +8471,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8489,10 +8492,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8503,10 +8506,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8529,16 +8532,16 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8588,7 +8591,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8609,10 +8612,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8623,10 +8626,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8649,16 +8652,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8708,7 +8711,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8729,10 +8732,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8743,10 +8746,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8769,19 +8772,19 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8830,7 +8833,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8851,10 +8854,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8865,10 +8868,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8891,13 +8894,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8948,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8983,10 +8986,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9015,7 +9018,7 @@
         <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -9068,7 +9071,7 @@
         <v>146</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9103,14 +9106,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9132,10 +9135,10 @@
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9190,7 +9193,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9225,10 +9228,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9254,16 +9257,16 @@
         <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9288,13 +9291,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9312,7 +9315,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>92</v>
@@ -9330,16 +9333,16 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9347,10 +9350,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9373,19 +9376,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9434,7 +9437,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9452,27 +9455,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9498,16 +9501,16 @@
         <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9532,13 +9535,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9556,7 +9559,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9565,7 +9568,7 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9580,7 +9583,7 @@
         <v>106</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9591,14 +9594,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9620,16 +9623,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9654,13 +9657,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9678,7 +9681,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9696,27 +9699,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9742,16 +9745,16 @@
         <v>83</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9800,7 +9803,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9821,10 +9824,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
+++ b/output/StructureDefinition-cls-l1-clinical-microbiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
